--- a/Output/Modelling/Logistic Regression/Tables/Most_Complex_Models_Best_Params.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/Most_Complex_Models_Best_Params.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Balanced</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Multinomial</t>
+          <t>One vs Rest</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/Output/Modelling/Logistic Regression/Tables/Most_Complex_Models_Best_Params.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/Most_Complex_Models_Best_Params.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
